--- a/seq/RAxML_run_summary.xlsx
+++ b/seq/RAxML_run_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\seq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76511B5D-35B0-49B9-9A88-306676812AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FFB932-461C-44CE-8AC0-8B43E723C7D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="-1020" windowWidth="21600" windowHeight="12615" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>RunName</t>
   </si>
@@ -66,36 +66,9 @@
     <t>RaxML_9</t>
   </si>
   <si>
-    <t>RaxML_10</t>
-  </si>
-  <si>
     <t>RaxML_11</t>
   </si>
   <si>
-    <t>RaxML_12</t>
-  </si>
-  <si>
-    <t>RaxML_13</t>
-  </si>
-  <si>
-    <t>RaxML_14</t>
-  </si>
-  <si>
-    <t>RaxML_15</t>
-  </si>
-  <si>
-    <t>RaxML_16</t>
-  </si>
-  <si>
-    <t>RaxML_17</t>
-  </si>
-  <si>
-    <t>RaxML_18</t>
-  </si>
-  <si>
-    <t>RaxML_19</t>
-  </si>
-  <si>
     <t>RAPTORB_NCBI_BLAST_viridiplantae250hits_alignment.fasta</t>
   </si>
   <si>
@@ -123,10 +96,97 @@
     <t>RAPTORB_phytozome_top100_align.fasta</t>
   </si>
   <si>
-    <t>RAPTORB_phytozome_top250_align.fasta</t>
-  </si>
-  <si>
     <t>RAPTORB_NCBI_BLAST_viridiplantae100hits_align.fasta</t>
+  </si>
+  <si>
+    <t>LST8-1_NCBI_HomoloGene.fasta.ren.align</t>
+  </si>
+  <si>
+    <t>LST8-1_NCBI_BLAST_viridiplantae100hits_alignment.fasta</t>
+  </si>
+  <si>
+    <t>LST8-1_ENSEMBL_gene_tree.fasta</t>
+  </si>
+  <si>
+    <t>LST8-1_phytozome_top100.fasta.ren.align</t>
+  </si>
+  <si>
+    <t>TOR_ENSEMBL_gene_tree.fasta</t>
+  </si>
+  <si>
+    <t>TOR_NCBI_BLAST_viridiplantae100hits.fasta</t>
+  </si>
+  <si>
+    <t>TOR_NCBI_HomoloGene.fasta.ren.align</t>
+  </si>
+  <si>
+    <t>TOR_phytozome_top100.fasta.ren.align</t>
+  </si>
+  <si>
+    <t>RaxML_4</t>
+  </si>
+  <si>
+    <t>GAMMA+I</t>
+  </si>
+  <si>
+    <t>RaxML__12</t>
+  </si>
+  <si>
+    <t>RaxML__13</t>
+  </si>
+  <si>
+    <t>RAPTORB_NCBI_HomoloGene.fasta</t>
+  </si>
+  <si>
+    <t>RaxML____15</t>
+  </si>
+  <si>
+    <t>RaxML____16</t>
+  </si>
+  <si>
+    <t>RaxML_____16</t>
+  </si>
+  <si>
+    <t>RaxML_____18</t>
+  </si>
+  <si>
+    <t>RaxML_______19</t>
+  </si>
+  <si>
+    <t>RaxML___13</t>
+  </si>
+  <si>
+    <t>RaxML____14</t>
+  </si>
+  <si>
+    <t>RaxML______16</t>
+  </si>
+  <si>
+    <t>RaxML_______17</t>
+  </si>
+  <si>
+    <t>RaxML________18</t>
+  </si>
+  <si>
+    <t>RaxML_________20</t>
+  </si>
+  <si>
+    <t>RaxML______17</t>
+  </si>
+  <si>
+    <t>RaxML_______18</t>
+  </si>
+  <si>
+    <t>RaxML__________21</t>
+  </si>
+  <si>
+    <t>RaxML___________22</t>
+  </si>
+  <si>
+    <t>RaxML__14</t>
+  </si>
+  <si>
+    <t>RaxML__________20</t>
   </si>
 </sst>
 </file>
@@ -142,12 +202,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,8 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,20 +546,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,224 +576,571 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-13153.313185999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>-13017.26355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-4911.59584</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>-4809.521189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D2">
-        <v>-65706.702879999997</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-5415.7299329999996</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>-5363.3064430000004</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-29500.945144000001</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>-29368.363826000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>-99416.866563000003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>-91416.032231000005</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>-29567.364072</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>-28995.531053999999</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>-65706.702879999997</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>-64440.917826999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>-64172.153708999998</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-31810.059519999999</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-31479.332747</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>-72124.902675000005</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>-70926.891969000004</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>-116832.449767</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-38203.595950000003</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>-37352.607713999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-45328.390428999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>-44673.667219000003</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-118676.162627</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
+    <sortCondition ref="B2:B29"/>
+    <sortCondition ref="C2:C29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seq/RAxML_run_summary.xlsx
+++ b/seq/RAxML_run_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\seq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FFB932-461C-44CE-8AC0-8B43E723C7D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6F7E1-6D26-4837-B4FF-C6FB417E39B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
+    <workbookView xWindow="930" yWindow="1340" windowWidth="18070" windowHeight="6440" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,10 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,163 +589,163 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
         <v>-13153.313185999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
         <v>-13017.26355</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
         <v>-4911.59584</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
         <v>-4809.521189</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>-5415.7299329999996</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
         <v>-5363.3064430000004</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>-29500.945144000001</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
         <v>-29368.363826000001</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -760,83 +767,83 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
         <v>-99416.866563000003</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
         <v>-91416.032231000005</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>-29567.364072</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
         <v>-28995.531053999999</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -901,42 +908,42 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>-31810.059519999999</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
         <v>-31479.332747</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1018,103 +1025,103 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>-38203.595950000003</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3">
         <v>-37352.607713999998</v>
       </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>-45328.390428999999</v>
       </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
         <v>-44673.667219000003</v>
       </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>-118676.162627</v>
       </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/seq/RAxML_run_summary.xlsx
+++ b/seq/RAxML_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\seq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6F7E1-6D26-4837-B4FF-C6FB417E39B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF353990-18BC-475C-AD4F-BD1C46B02040}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="1340" windowWidth="18070" windowHeight="6440" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>RaxML_7</t>
   </si>
   <si>
-    <t>RaxML_8</t>
-  </si>
-  <si>
     <t>RaxML_9</t>
   </si>
   <si>
@@ -132,18 +129,12 @@
     <t>RaxML__12</t>
   </si>
   <si>
-    <t>RaxML__13</t>
-  </si>
-  <si>
     <t>RAPTORB_NCBI_HomoloGene.fasta</t>
   </si>
   <si>
     <t>RaxML____15</t>
   </si>
   <si>
-    <t>RaxML____16</t>
-  </si>
-  <si>
     <t>RaxML_____16</t>
   </si>
   <si>
@@ -186,7 +177,16 @@
     <t>RaxML__14</t>
   </si>
   <si>
-    <t>RaxML__________20</t>
+    <t>RaxML__________19</t>
+  </si>
+  <si>
+    <t>RaxML___________20</t>
+  </si>
+  <si>
+    <t>RaxML____________22</t>
+  </si>
+  <si>
+    <t>RaxML_____________23</t>
   </si>
 </sst>
 </file>
@@ -234,10 +234,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -555,13 +554,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.90625" customWidth="1"/>
@@ -583,268 +582,268 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-13153.313185999999</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-13017.26355</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-4911.59584</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-4809.521189</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-5415.7299329999996</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-5363.3064430000004</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-13153.313185999999</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-29500.945144000001</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-13017.26355</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-4911.59584</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-4809.521189</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-5415.7299329999996</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-5363.3064430000004</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-29500.945144000001</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>-29368.363826000001</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-99416.866563000003</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-99416.866563000003</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>-91416.032231000005</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
         <v>-29567.364072</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>-28995.531053999999</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -852,19 +851,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>-65706.702879999997</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -872,19 +871,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>-64440.917826999997</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -892,255 +891,255 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>-64172.153708999998</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>-31810.059519999999</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>-31479.332747</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
         <v>-72124.902675000005</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
         <v>-70926.891969000004</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>-116832.449767</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-38203.595950000003</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-37352.607713999998</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-38203.595950000003</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-45328.390428999999</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-37352.607713999998</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-44673.667219000003</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
-        <v>-45328.390428999999</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-44673.667219000003</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
         <v>-118676.162627</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>16</v>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/seq/RAxML_run_summary.xlsx
+++ b/seq/RAxML_run_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\seq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF353990-18BC-475C-AD4F-BD1C46B02040}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CC113-6429-4C4C-AC0C-92818FF6E220}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1340" windowWidth="18070" windowHeight="6440" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,6 @@
     <t>RaxML_____16</t>
   </si>
   <si>
-    <t>RaxML_____18</t>
-  </si>
-  <si>
-    <t>RaxML_______19</t>
-  </si>
-  <si>
     <t>RaxML___13</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>RaxML_______17</t>
   </si>
   <si>
-    <t>RaxML________18</t>
-  </si>
-  <si>
     <t>RaxML_________20</t>
   </si>
   <si>
@@ -187,6 +178,15 @@
   </si>
   <si>
     <t>RaxML_____________23</t>
+  </si>
+  <si>
+    <t>RaxML______________23</t>
+  </si>
+  <si>
+    <t>RaxML____________20</t>
+  </si>
+  <si>
+    <t>RaxML_____________21</t>
   </si>
 </sst>
 </file>
@@ -202,18 +202,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -237,7 +231,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,21 +548,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,265 +582,264 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-13153.313185999999</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-13017.26355</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-4911.59584</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-4809.521189</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-5415.7299329999996</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-5363.3064430000004</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-29500.945144000001</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-29368.363826000001</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-13153.313185999999</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-13017.26355</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-4911.59584</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-4809.521189</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-5415.7299329999996</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-5363.3064430000004</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-29500.945144000001</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-29368.363826000001</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>-99416.866563000003</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>-91416.032231000005</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
         <v>-29567.364072</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>-28995.531053999999</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -866,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -886,259 +879,259 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>-64172.153708999998</v>
       </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-31810.059519999999</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-31479.332747</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-72124.902675000005</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-70926.891969000004</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-31810.059519999999</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-31479.332747</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-72124.902675000005</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-116832.449767</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-38203.595950000003</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-37352.607713999998</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-45328.390428999999</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-44673.667219000003</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-118676.162627</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-70926.891969000004</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>-116832.449767</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-38203.595950000003</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
-        <v>-37352.607713999998</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-45328.390428999999</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-44673.667219000003</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2">
-        <v>-118676.162627</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
